--- a/課題4-4エビデンス.xlsx
+++ b/課題4-4エビデンス.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\翔栄\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
@@ -10,14 +15,14 @@
     <sheet name="課題4-4エビデンス" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'課題4-4エビデンス'!$A$1:$R$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'課題4-4エビデンス'!$A$1:$M$129</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>insert前</t>
     <phoneticPr fontId="1"/>
@@ -27,22 +32,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①本テーブルのデータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②図書館テーブルのデータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③図書館と本のひも付きテーブルのデータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>課題4-4エビデンス</t>
     <rPh sb="0" eb="2">
       <t>カダイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①データ挿入</t>
+    <rPh sb="4" eb="6">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②本テーブルのデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③図書館テーブルのデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④図書館と本のひも付きテーブルのデータ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -136,8 +148,36 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF66FFFF"/>
@@ -148,6 +188,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -157,32 +200,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>627531</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385615</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>148186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="9" name="図 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="1" r="40305" b="61928"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="201707" y="504265"/>
-          <a:ext cx="10880912" cy="3697941"/>
+          <a:off x="201706" y="4202206"/>
+          <a:ext cx="7904762" cy="2333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -195,31 +239,32 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>554888</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>52451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect r="40373" b="67982"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="201706" y="6387353"/>
-          <a:ext cx="10903323" cy="3171265"/>
+          <a:off x="201706" y="13110882"/>
+          <a:ext cx="7390476" cy="1733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -232,31 +277,32 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>573936</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="15" name="図 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect r="40373" b="56103"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="201706" y="10925735"/>
-          <a:ext cx="10903323" cy="4347883"/>
+          <a:off x="201706" y="20842941"/>
+          <a:ext cx="7409524" cy="2904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -269,31 +315,68 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484813</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="16" name="図 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect r="40357" b="59995"/>
+        <a:srcRect b="1164"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="4972050"/>
-          <a:ext cx="10906125" cy="3962400"/>
+          <a:off x="197069" y="512379"/>
+          <a:ext cx="3217503" cy="3041431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>442758</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="2229"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="201706" y="8292352"/>
+          <a:ext cx="7961905" cy="2458257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -304,16 +387,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168649</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>14007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>359149</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>134657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -322,8 +405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="8448675"/>
-          <a:ext cx="7734300" cy="292100"/>
+          <a:off x="370355" y="8922683"/>
+          <a:ext cx="7709647" cy="288739"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -366,31 +449,32 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>564412</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>46267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="18" name="図 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect r="40305" b="65958"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="13544551"/>
-          <a:ext cx="10915650" cy="3371850"/>
+          <a:off x="201706" y="12438529"/>
+          <a:ext cx="7400000" cy="1895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -401,16 +485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176493</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>64433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>13633</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -419,8 +503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2400300" y="16430625"/>
-          <a:ext cx="1419225" cy="292100"/>
+          <a:off x="378199" y="13847668"/>
+          <a:ext cx="1414743" cy="285377"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -463,31 +547,32 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>592983</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>107745</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPr id="19" name="図 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect r="40305" b="54225"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="22631400"/>
-          <a:ext cx="10915650" cy="4533900"/>
+          <a:off x="201706" y="19834412"/>
+          <a:ext cx="7428571" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -498,16 +583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>98051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508186</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>47251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -516,8 +601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2447925" y="26717625"/>
-          <a:ext cx="1666875" cy="292100"/>
+          <a:off x="414617" y="20940992"/>
+          <a:ext cx="1662393" cy="285377"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -560,7 +645,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,7 +722,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,9 +934,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -859,336 +944,257 @@
     <col min="18" max="18" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
+    <row r="63" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>3</v>
+    <row r="75" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="5" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B104" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B132" s="5" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B109" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="55" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="68" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="55" max="16383" man="1"/>
-    <brk id="101" max="16383" man="1"/>
+    <brk id="59" max="16383" man="1"/>
+    <brk id="87" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
